--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.793595219107942</v>
+        <v>3.793595219107885</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9375887331806325</v>
+        <v>0.9375887331803483</v>
       </c>
       <c r="E2">
         <v>1.857112893163958</v>
       </c>
       <c r="F2">
-        <v>14.08800336359928</v>
+        <v>14.0880033635994</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7280455275146096</v>
+        <v>0.7280455275150359</v>
       </c>
       <c r="E3">
-        <v>1.539824242421048</v>
+        <v>1.53982424242102</v>
       </c>
       <c r="F3">
-        <v>11.11764670768969</v>
+        <v>11.11764670768966</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.389489735613637</v>
+        <v>7.389489735613722</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.902949279196889</v>
+        <v>2.902949279197117</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,16 +497,16 @@
         <v>0.62206923534319</v>
       </c>
       <c r="E4">
-        <v>1.366554145344807</v>
+        <v>1.366554145344821</v>
       </c>
       <c r="F4">
-        <v>9.590595461103732</v>
+        <v>9.590595461103788</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2996425140302961</v>
+        <v>0.2996425140303032</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.518640382900912</v>
+        <v>6.518640382900884</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.772180248488553</v>
+        <v>2.77218024848861</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5825732123541343</v>
+        <v>0.5825732123539069</v>
       </c>
       <c r="E5">
         <v>1.299318932537957</v>
       </c>
       <c r="F5">
-        <v>9.016849934190503</v>
+        <v>9.016849934190446</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2938305112688369</v>
+        <v>0.2938305112688511</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.181719909033035</v>
+        <v>6.181719909033063</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750611571831882</v>
+        <v>2.750611571831826</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5761984896551837</v>
+        <v>0.5761984896553543</v>
       </c>
       <c r="E6">
-        <v>1.288319208284008</v>
+        <v>1.288319208284065</v>
       </c>
       <c r="F6">
-        <v>8.924000252881513</v>
+        <v>8.924000252881598</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.901175343765203</v>
+        <v>2.901175343765431</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6215235090479325</v>
+        <v>0.6215235090481315</v>
       </c>
       <c r="E7">
-        <v>1.365635595725379</v>
+        <v>1.365635595725394</v>
       </c>
       <c r="F7">
-        <v>9.582685530707721</v>
+        <v>9.582685530707636</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2995593461577144</v>
+        <v>0.2995593461577073</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E8">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F8">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E9">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F9">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E10">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F10">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E11">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F11">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E12">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F12">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E13">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F13">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E14">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F14">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E15">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F15">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E16">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F16">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E17">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F17">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E18">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F18">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E19">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F19">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E20">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F20">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E21">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F21">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E22">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F22">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E23">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F23">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E24">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F24">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.59478734789451</v>
+        <v>3.594787347894396</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.8589494496186489</v>
+        <v>0.85894944961845</v>
       </c>
       <c r="E25">
-        <v>1.741510876596081</v>
+        <v>1.741510876596095</v>
       </c>
       <c r="F25">
-        <v>12.98053059013597</v>
+        <v>12.98053059013606</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.341049524678418</v>
+        <v>0.3410495246784322</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -412,19 +412,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.793595219107885</v>
+        <v>3.793595219107942</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9375887331803483</v>
+        <v>0.9375887331806325</v>
       </c>
       <c r="E2">
         <v>1.857112893163958</v>
       </c>
       <c r="F2">
-        <v>14.0880033635994</v>
+        <v>14.08800336359928</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -456,13 +456,13 @@
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7280455275150359</v>
+        <v>0.7280455275146096</v>
       </c>
       <c r="E3">
-        <v>1.53982424242102</v>
+        <v>1.539824242421048</v>
       </c>
       <c r="F3">
-        <v>11.11764670768966</v>
+        <v>11.11764670768969</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -477,7 +477,7 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.389489735613722</v>
+        <v>7.389489735613637</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -488,7 +488,7 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.902949279197117</v>
+        <v>2.902949279196889</v>
       </c>
       <c r="C4">
         <v>0</v>
@@ -497,16 +497,16 @@
         <v>0.62206923534319</v>
       </c>
       <c r="E4">
-        <v>1.366554145344821</v>
+        <v>1.366554145344807</v>
       </c>
       <c r="F4">
-        <v>9.590595461103788</v>
+        <v>9.590595461103732</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>0.2996425140303032</v>
+        <v>0.2996425140302961</v>
       </c>
       <c r="I4">
         <v>0</v>
@@ -515,7 +515,7 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.518640382900884</v>
+        <v>6.518640382900912</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.77218024848861</v>
+        <v>2.772180248488553</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5825732123539069</v>
+        <v>0.5825732123541343</v>
       </c>
       <c r="E5">
         <v>1.299318932537957</v>
       </c>
       <c r="F5">
-        <v>9.016849934190446</v>
+        <v>9.016849934190503</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>0.2938305112688511</v>
+        <v>0.2938305112688369</v>
       </c>
       <c r="I5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.181719909033063</v>
+        <v>6.181719909033035</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -564,19 +564,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750611571831826</v>
+        <v>2.750611571831882</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5761984896553543</v>
+        <v>0.5761984896551837</v>
       </c>
       <c r="E6">
-        <v>1.288319208284065</v>
+        <v>1.288319208284008</v>
       </c>
       <c r="F6">
-        <v>8.924000252881598</v>
+        <v>8.924000252881513</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -602,25 +602,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.901175343765431</v>
+        <v>2.901175343765203</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6215235090481315</v>
+        <v>0.6215235090479325</v>
       </c>
       <c r="E7">
-        <v>1.365635595725394</v>
+        <v>1.365635595725379</v>
       </c>
       <c r="F7">
-        <v>9.582685530707636</v>
+        <v>9.582685530707721</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>0.2995593461577073</v>
+        <v>0.2995593461577144</v>
       </c>
       <c r="I7">
         <v>0</v>
@@ -640,25 +640,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E8">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F8">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I8">
         <v>0</v>
@@ -678,25 +678,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E9">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F9">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I9">
         <v>0</v>
@@ -716,25 +716,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E10">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F10">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I10">
         <v>0</v>
@@ -754,25 +754,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E11">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F11">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I11">
         <v>0</v>
@@ -792,25 +792,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E12">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F12">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I12">
         <v>0</v>
@@ -830,25 +830,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E13">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F13">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G13">
         <v>0</v>
       </c>
       <c r="H13">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I13">
         <v>0</v>
@@ -868,25 +868,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E14">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F14">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I14">
         <v>0</v>
@@ -906,25 +906,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E15">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F15">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I15">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E16">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F16">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I16">
         <v>0</v>
@@ -982,25 +982,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E17">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F17">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I17">
         <v>0</v>
@@ -1020,25 +1020,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E18">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F18">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I18">
         <v>0</v>
@@ -1058,25 +1058,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E19">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F19">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I19">
         <v>0</v>
@@ -1096,25 +1096,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E20">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F20">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I20">
         <v>0</v>
@@ -1134,25 +1134,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E21">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F21">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I21">
         <v>0</v>
@@ -1172,25 +1172,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E22">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F22">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I22">
         <v>0</v>
@@ -1210,25 +1210,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E23">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F23">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G23">
         <v>0</v>
       </c>
       <c r="H23">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I23">
         <v>0</v>
@@ -1248,25 +1248,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E24">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F24">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I24">
         <v>0</v>
@@ -1286,25 +1286,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.594787347894396</v>
+        <v>3.59478734789451</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.85894944961845</v>
+        <v>0.8589494496186489</v>
       </c>
       <c r="E25">
-        <v>1.741510876596095</v>
+        <v>1.741510876596081</v>
       </c>
       <c r="F25">
-        <v>12.98053059013606</v>
+        <v>12.98053059013597</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>0.3410495246784322</v>
+        <v>0.341049524678418</v>
       </c>
       <c r="I25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.793595219107942</v>
+        <v>3.774848967964886</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9375887331806325</v>
+        <v>0.9077765818562114</v>
       </c>
       <c r="E2">
-        <v>1.857112893163958</v>
+        <v>1.819045434571962</v>
       </c>
       <c r="F2">
-        <v>14.08800336359928</v>
+        <v>13.75405567827693</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.0005435150692883353</v>
       </c>
       <c r="H2">
-        <v>0.3562695047198403</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.3561347618943245</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>8.987208774613663</v>
+        <v>0</v>
       </c>
       <c r="L2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>8.856980560324416</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.230975758131819</v>
+        <v>3.217080151548942</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.7280455275146096</v>
+        <v>0.706749768018085</v>
       </c>
       <c r="E3">
-        <v>1.539824242421048</v>
+        <v>1.510450012715822</v>
       </c>
       <c r="F3">
-        <v>11.11764670768969</v>
+        <v>10.88532594104629</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>0.0005857617029053865</v>
       </c>
       <c r="H3">
-        <v>0.317048231966595</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
+        <v>0.3184898175677873</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>7.389489735613637</v>
+        <v>0</v>
       </c>
       <c r="L3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>7.294104473923454</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.902949279196889</v>
+        <v>2.891249810135662</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.62206923534319</v>
+        <v>0.6046739150558267</v>
       </c>
       <c r="E4">
-        <v>1.366554145344807</v>
+        <v>1.341001718957443</v>
       </c>
       <c r="F4">
-        <v>9.590595461103732</v>
+        <v>9.404090193003185</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>0.000609555909998749</v>
       </c>
       <c r="H4">
-        <v>0.2996425140302961</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
+        <v>0.3019050071069174</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>6.518640382900912</v>
+        <v>0</v>
       </c>
       <c r="L4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>6.43871364772221</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.772180248488553</v>
+        <v>2.76127116068966</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5825732123541343</v>
+        <v>0.5665905063199261</v>
       </c>
       <c r="E5">
-        <v>1.299318932537957</v>
+        <v>1.275120499572111</v>
       </c>
       <c r="F5">
-        <v>9.016849934190503</v>
+        <v>8.846801312584518</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>0.000618941176022983</v>
       </c>
       <c r="H5">
-        <v>0.2938305112688369</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
+        <v>0.296409344501555</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>6.181719909033035</v>
+        <v>0</v>
       </c>
       <c r="L5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>6.107297913417028</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.750611571831882</v>
+        <v>2.739828936426875</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.5761984896551837</v>
+        <v>0.560442276299824</v>
       </c>
       <c r="E6">
-        <v>1.288319208284008</v>
+        <v>1.264336257415053</v>
       </c>
       <c r="F6">
-        <v>8.924000252881513</v>
+        <v>8.756582987582249</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>0.000620485331034238</v>
       </c>
       <c r="H6">
-        <v>0.292934269914781</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
+        <v>0.2955648489840357</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>6.126666991908593</v>
+        <v>0</v>
       </c>
       <c r="L6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>6.053122604146182</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.901175343765203</v>
+        <v>2.889486883443851</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6215235090479325</v>
+        <v>0.6041478292554814</v>
       </c>
       <c r="E7">
-        <v>1.365635595725379</v>
+        <v>1.340102110864009</v>
       </c>
       <c r="F7">
-        <v>9.582685530707721</v>
+        <v>9.396409592349045</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>0.0006096835274273603</v>
       </c>
       <c r="H7">
-        <v>0.2995593461577144</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>0.3018261638380437</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>6.514032983666709</v>
+        <v>0</v>
       </c>
       <c r="L7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>6.434183144980722</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.59478734789451</v>
+        <v>3.57796217615163</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8589494496186489</v>
+        <v>0.8324965224587118</v>
       </c>
       <c r="E8">
-        <v>1.741510876596081</v>
+        <v>1.706922051003147</v>
       </c>
       <c r="F8">
-        <v>12.98053059013597</v>
+        <v>12.68689633209161</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>0.0005587153671463948</v>
       </c>
       <c r="H8">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
+        <v>0.341506182739181</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>8.28905011174038</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E9">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F9">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H9">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E10">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F10">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H10">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E11">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F11">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H11">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E12">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F12">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H12">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E13">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F13">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H13">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E14">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F14">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H14">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E15">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F15">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H15">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E16">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F16">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H16">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E17">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F17">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H17">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E18">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F18">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H18">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E19">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F19">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H19">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E20">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F20">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H20">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E21">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F21">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H21">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E22">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F22">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H22">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E23">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F23">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H23">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E24">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F24">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H24">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:12">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>3.59478734789451</v>
+        <v>5.310597107422325</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.8589494496186489</v>
+        <v>1.829458609271285</v>
       </c>
       <c r="E25">
-        <v>1.741510876596081</v>
+        <v>2.994802980604533</v>
       </c>
       <c r="F25">
-        <v>12.98053059013597</v>
+        <v>26.21452582028684</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>0.0003953801994566851</v>
       </c>
       <c r="H25">
-        <v>0.341049524678418</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>0.5275061390994864</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>8.405379358493292</v>
+        <v>0</v>
       </c>
       <c r="L25">
+        <v>14.53421542086713</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>3.774848967964886</v>
+        <v>0.2787402838271191</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.9077765818562114</v>
+        <v>0.6669893193970609</v>
       </c>
       <c r="E2">
-        <v>1.819045434571962</v>
+        <v>2.015104136026849</v>
       </c>
       <c r="F2">
-        <v>13.75405567827693</v>
+        <v>11.0961136638829</v>
       </c>
       <c r="G2">
-        <v>0.0005435150692883353</v>
+        <v>0.000582010456471657</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.3561347618943245</v>
+        <v>0</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>11.54204153601816</v>
       </c>
       <c r="L2">
-        <v>8.856980560324416</v>
+        <v>0</v>
       </c>
       <c r="M2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:13">
+      <c r="N2">
+        <v>0.3637943515031665</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>3.217080151548942</v>
+        <v>0.2425599203463094</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.706749768018085</v>
+        <v>0.5291687963413096</v>
       </c>
       <c r="E3">
-        <v>1.510450012715822</v>
+        <v>1.608179432989303</v>
       </c>
       <c r="F3">
-        <v>10.88532594104629</v>
+        <v>8.952196062393028</v>
       </c>
       <c r="G3">
-        <v>0.0005857617029053865</v>
+        <v>0.0006185940782698959</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.3184898175677873</v>
+        <v>0</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>9.441160101347947</v>
       </c>
       <c r="L3">
-        <v>7.294104473923454</v>
+        <v>0</v>
       </c>
       <c r="M3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:13">
+      <c r="N3">
+        <v>0.4440282678869991</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>2.891249810135662</v>
+        <v>0.2207574106622303</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.6046739150558267</v>
+        <v>0.4576339784721029</v>
       </c>
       <c r="E4">
-        <v>1.341001718957443</v>
+        <v>1.394861555634819</v>
       </c>
       <c r="F4">
-        <v>9.404090193003185</v>
+        <v>7.815279720890118</v>
       </c>
       <c r="G4">
-        <v>0.000609555909998749</v>
+        <v>0.0006394204602154401</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0.3019050071069174</v>
+        <v>0</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>8.297423926507491</v>
       </c>
       <c r="L4">
-        <v>6.43871364772221</v>
+        <v>0</v>
       </c>
       <c r="M4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4">
+        <v>0.4928942996782411</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>2.76127116068966</v>
+        <v>0.2119530559607199</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.5665905063199261</v>
+        <v>0.4306901870077979</v>
       </c>
       <c r="E5">
-        <v>1.275120499572111</v>
+        <v>1.313976574213243</v>
       </c>
       <c r="F5">
-        <v>8.846801312584518</v>
+        <v>7.382583489027894</v>
       </c>
       <c r="G5">
-        <v>0.000618941176022983</v>
+        <v>0.0006476647903587074</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0.296409344501555</v>
+        <v>0</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>7.856014380515006</v>
       </c>
       <c r="L5">
-        <v>6.107297913417028</v>
+        <v>0</v>
       </c>
       <c r="M5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:13">
+      <c r="N5">
+        <v>0.512847209089923</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>2.739828936426875</v>
+        <v>0.2104954253947966</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.560442276299824</v>
+        <v>0.4263273855100778</v>
       </c>
       <c r="E6">
-        <v>1.264336257415053</v>
+        <v>1.300847375715662</v>
       </c>
       <c r="F6">
-        <v>8.756582987582249</v>
+        <v>7.312284100158593</v>
       </c>
       <c r="G6">
-        <v>0.000620485331034238</v>
+        <v>0.0006490225689043692</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0.2955648489840357</v>
+        <v>0</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>7.783960139116431</v>
       </c>
       <c r="L6">
-        <v>6.053122604146182</v>
+        <v>0</v>
       </c>
       <c r="M6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:13">
+      <c r="N6">
+        <v>0.516165533075597</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>2.889486883443851</v>
+        <v>0.2206383713843536</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.6041478292554814</v>
+        <v>0.4572627165112237</v>
       </c>
       <c r="E7">
-        <v>1.340102110864009</v>
+        <v>1.393749248605047</v>
       </c>
       <c r="F7">
-        <v>9.396409592349045</v>
+        <v>7.809334464135816</v>
       </c>
       <c r="G7">
-        <v>0.0006096835274273603</v>
+        <v>0.0006395324640890212</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0.3018261638380437</v>
+        <v>0</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>8.291382802791702</v>
       </c>
       <c r="L7">
-        <v>6.434183144980722</v>
+        <v>0</v>
       </c>
       <c r="M7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:13">
+      <c r="N7">
+        <v>0.4931630995348186</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>3.57796217615163</v>
+        <v>0.2661621805294345</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.8324965224587118</v>
+        <v>0.6158803417036154</v>
       </c>
       <c r="E8">
-        <v>1.706922051003147</v>
+        <v>1.864660577019265</v>
       </c>
       <c r="F8">
-        <v>12.68689633209161</v>
+        <v>10.3080355942663</v>
       </c>
       <c r="G8">
-        <v>0.0005587153671463948</v>
+        <v>0.0005950993823119225</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0.341506182739181</v>
+        <v>0</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>10.77762938158372</v>
       </c>
       <c r="L8">
-        <v>8.28905011174038</v>
+        <v>0</v>
       </c>
       <c r="M8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:13">
+      <c r="N8">
+        <v>0.3916561671125471</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E9">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F9">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G9">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L9">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:13">
+      <c r="N9">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E10">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F10">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G10">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L10">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:13">
+      <c r="N10">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E11">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F11">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G11">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L11">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:13">
+      <c r="N11">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E12">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F12">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G12">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L12">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:13">
+      <c r="N12">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E13">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F13">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G13">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L13">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:13">
+      <c r="N13">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E14">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F14">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G14">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L14">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:13">
+      <c r="N14">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E15">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F15">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G15">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L15">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:13">
+      <c r="N15">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E16">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F16">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G16">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L16">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:13">
+      <c r="N16">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E17">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F17">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G17">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L17">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:13">
+      <c r="N17">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E18">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F18">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G18">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L18">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E19">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F19">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G19">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L19">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:13">
+      <c r="N19">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E20">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F20">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G20">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L20">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:13">
+      <c r="N20">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E21">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F21">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G21">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L21">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:13">
+      <c r="N21">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E22">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F22">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G22">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L22">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:13">
+      <c r="N22">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E23">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F23">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G23">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L23">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:13">
+      <c r="N23">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E24">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F24">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G24">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L24">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:13">
+      <c r="N24">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>5.310597107422325</v>
+        <v>0.3612781842573156</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>1.829458609271285</v>
+        <v>1.186799473002395</v>
       </c>
       <c r="E25">
-        <v>2.994802980604533</v>
+        <v>3.551999829271637</v>
       </c>
       <c r="F25">
-        <v>26.21452582028684</v>
+        <v>18.66202129617812</v>
       </c>
       <c r="G25">
-        <v>0.0003953801994566851</v>
+        <v>0.0004710728380771278</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5275061390994864</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>18.51317870404898</v>
       </c>
       <c r="L25">
-        <v>14.53421542086713</v>
+        <v>0</v>
       </c>
       <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>0.1679183822628261</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1425304360311941</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.962156634124085</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>0.4458463743327314</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>10.20143325660274</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.002262188176948793</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -457,7 +457,7 @@
         <v>0</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>1.995241137946778</v>
       </c>
       <c r="O2">
         <v>0</v>
@@ -467,115 +467,1081 @@
       <c r="A3" s="1">
         <v>1</v>
       </c>
+      <c r="B3">
+        <v>0.1329091933101978</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.8365037704559768</v>
+      </c>
+      <c r="E3">
+        <v>0.3839303037647994</v>
+      </c>
+      <c r="F3">
+        <v>8.971073824027258</v>
+      </c>
+      <c r="G3">
+        <v>0.002292580828655577</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+      <c r="I3">
+        <v>0</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>1.846526605564804</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
+      <c r="B4">
+        <v>0.1270661492628875</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.7611049410724036</v>
+      </c>
+      <c r="E4">
+        <v>0.3467450935371517</v>
+      </c>
+      <c r="F4">
+        <v>8.234177258725538</v>
+      </c>
+      <c r="G4">
+        <v>0.0023118492310552</v>
+      </c>
+      <c r="H4">
+        <v>0</v>
+      </c>
+      <c r="I4">
+        <v>0</v>
+      </c>
+      <c r="J4">
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+      <c r="N4">
+        <v>1.755520437593759</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
     </row>
     <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
+      <c r="B5">
+        <v>0.1247015078378411</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.730766063620365</v>
+      </c>
+      <c r="E5">
+        <v>0.3317727812344629</v>
+      </c>
+      <c r="F5">
+        <v>7.938027056214651</v>
+      </c>
+      <c r="G5">
+        <v>0.002319859200419272</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+      <c r="N5">
+        <v>1.71851688491077</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
+      <c r="B6">
+        <v>0.1243098614095288</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.7257501818318701</v>
+      </c>
+      <c r="E6">
+        <v>0.3292967917133183</v>
+      </c>
+      <c r="F6">
+        <v>7.889087161741202</v>
+      </c>
+      <c r="G6">
+        <v>0.002321198935318429</v>
+      </c>
+      <c r="H6">
+        <v>0</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>0</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
+        <v>1.712377599108464</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
+      <c r="B7">
+        <v>0.1270341919676241</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.7606942824760381</v>
+      </c>
+      <c r="E7">
+        <v>0.3465424744645134</v>
+      </c>
+      <c r="F7">
+        <v>8.230167166874878</v>
+      </c>
+      <c r="G7">
+        <v>0.002311956610156162</v>
+      </c>
+      <c r="H7">
+        <v>0</v>
+      </c>
+      <c r="I7">
+        <v>0</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+      <c r="N7">
+        <v>1.755021054646249</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
+      <c r="B8">
+        <v>0.1391997998655086</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.9184338710338693</v>
+      </c>
+      <c r="E8">
+        <v>0.424307433679374</v>
+      </c>
+      <c r="F8">
+        <v>9.773026510490354</v>
+      </c>
+      <c r="G8">
+        <v>0.002272544830137985</v>
+      </c>
+      <c r="H8">
+        <v>0</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1.943904251618477</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
+      <c r="B9">
+        <v>0.1635584291338716</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>1.244365504398274</v>
+      </c>
+      <c r="E9">
+        <v>0.5848117695389448</v>
+      </c>
+      <c r="F9">
+        <v>12.97191919808239</v>
+      </c>
+      <c r="G9">
+        <v>0.002199816190164405</v>
+      </c>
+      <c r="H9">
+        <v>0</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>0</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+      <c r="N9">
+        <v>2.316504389646809</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
+      <c r="B10">
+        <v>0.1817500012201947</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>1.49817501341397</v>
+      </c>
+      <c r="E10">
+        <v>0.7098273924807614</v>
+      </c>
+      <c r="F10">
+        <v>15.46875785442182</v>
+      </c>
+      <c r="G10">
+        <v>0.00214875892039311</v>
+      </c>
+      <c r="H10">
+        <v>0</v>
+      </c>
+      <c r="I10">
+        <v>0</v>
+      </c>
+      <c r="J10">
+        <v>0</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+      <c r="N10">
+        <v>2.591327722520418</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
     </row>
     <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
+      <c r="B11">
+        <v>0.190087785889915</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>1.617845959707608</v>
+      </c>
+      <c r="E11">
+        <v>0.7688136130821306</v>
+      </c>
+      <c r="F11">
+        <v>16.64702618999752</v>
+      </c>
+      <c r="G11">
+        <v>0.002125945549857217</v>
+      </c>
+      <c r="H11">
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>2.716530669508643</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
+      <c r="B12">
+        <v>0.1932538308941787</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>1.663873063842175</v>
+      </c>
+      <c r="E12">
+        <v>0.7915099086972788</v>
+      </c>
+      <c r="F12">
+        <v>17.10032549300035</v>
+      </c>
+      <c r="G12">
+        <v>0.00211735638729819</v>
+      </c>
+      <c r="H12">
+        <v>0</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>0</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+      <c r="N12">
+        <v>2.763963193734014</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>0.19257158332789</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>1.653926892227219</v>
+      </c>
+      <c r="E13">
+        <v>0.7866049050619921</v>
+      </c>
+      <c r="F13">
+        <v>17.0023653813555</v>
+      </c>
+      <c r="G13">
+        <v>0.002119204169922707</v>
+      </c>
+      <c r="H13">
+        <v>0</v>
+      </c>
+      <c r="I13">
+        <v>0</v>
+      </c>
+      <c r="J13">
+        <v>0</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+      <c r="N13">
+        <v>2.753746911386088</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
     </row>
     <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
+      <c r="B14">
+        <v>0.1903480852989645</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>1.621617751266228</v>
+      </c>
+      <c r="E14">
+        <v>0.7706733026041235</v>
+      </c>
+      <c r="F14">
+        <v>16.68417052974985</v>
+      </c>
+      <c r="G14">
+        <v>0.002125237976614789</v>
+      </c>
+      <c r="H14">
+        <v>0</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>2.720432585385822</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>0.1889872547793203</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>1.601923321132119</v>
+      </c>
+      <c r="E15">
+        <v>0.7609633214939606</v>
+      </c>
+      <c r="F15">
+        <v>16.49022585936302</v>
+      </c>
+      <c r="G15">
+        <v>0.00212894003229566</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>2.700029152110062</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0.1812063398626123</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>1.490447620010002</v>
+      </c>
+      <c r="E16">
+        <v>0.7060196344223328</v>
+      </c>
+      <c r="F16">
+        <v>15.39269276297034</v>
+      </c>
+      <c r="G16">
+        <v>0.002150257341324077</v>
+      </c>
+      <c r="H16">
+        <v>0</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2.583148644060884</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.1764487851811936</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>1.423209821040871</v>
+      </c>
+      <c r="E17">
+        <v>0.672892408822463</v>
+      </c>
+      <c r="F17">
+        <v>14.7309412752619</v>
+      </c>
+      <c r="G17">
+        <v>0.00216343409495481</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <v>0</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+      <c r="N17">
+        <v>2.511489453097056</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0.173718249425292</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>1.384925817277519</v>
+      </c>
+      <c r="E18">
+        <v>0.6540339565854651</v>
+      </c>
+      <c r="F18">
+        <v>14.35424649662457</v>
+      </c>
+      <c r="G18">
+        <v>0.002171052513261884</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>2.470290675909496</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.1727947553766569</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>1.372027423674069</v>
+      </c>
+      <c r="E19">
+        <v>0.6476808146103679</v>
+      </c>
+      <c r="F19">
+        <v>14.22734992692494</v>
+      </c>
+      <c r="G19">
+        <v>0.002173639036406534</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+      <c r="I19">
+        <v>0</v>
+      </c>
+      <c r="J19">
+        <v>0</v>
+      </c>
+      <c r="K19">
+        <v>0</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+      <c r="N19">
+        <v>2.456344689235721</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0.1769546279144407</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>1.430326383861825</v>
+      </c>
+      <c r="E20">
+        <v>0.6763982537082001</v>
+      </c>
+      <c r="F20">
+        <v>14.8009724992794</v>
+      </c>
+      <c r="G20">
+        <v>0.002162027384752784</v>
+      </c>
+      <c r="H20">
+        <v>0</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>0</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+      <c r="N20">
+        <v>2.519115905984279</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0.1910009463247917</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>1.631087546550361</v>
+      </c>
+      <c r="E21">
+        <v>0.7753425657400186</v>
+      </c>
+      <c r="F21">
+        <v>16.77743024407653</v>
+      </c>
+      <c r="G21">
+        <v>0.00212346443360316</v>
+      </c>
+      <c r="H21">
+        <v>0</v>
+      </c>
+      <c r="I21">
+        <v>0</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>0</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>2.730217288371591</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0.200231658042739</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>1.766496122056253</v>
+      </c>
+      <c r="E22">
+        <v>0.8421352034685583</v>
+      </c>
+      <c r="F22">
+        <v>18.1112013327471</v>
+      </c>
+      <c r="G22">
+        <v>0.002098546009986494</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+      <c r="J22">
+        <v>0</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+      <c r="N22">
+        <v>2.868303394937072</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0.1953005061478024</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>1.693803338916723</v>
+      </c>
+      <c r="E23">
+        <v>0.8062718020248951</v>
+      </c>
+      <c r="F23">
+        <v>17.39512490472509</v>
+      </c>
+      <c r="G23">
+        <v>0.002111822893887206</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+      <c r="N23">
+        <v>2.794595190493055</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0.1767259219246853</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>1.427107835139736</v>
+      </c>
+      <c r="E24">
+        <v>0.674812683368657</v>
+      </c>
+      <c r="F24">
+        <v>14.76929976168378</v>
+      </c>
+      <c r="G24">
+        <v>0.002162663223747259</v>
+      </c>
+      <c r="H24">
+        <v>0</v>
+      </c>
+      <c r="I24">
+        <v>0</v>
+      </c>
+      <c r="J24">
+        <v>0</v>
+      </c>
+      <c r="K24">
+        <v>0</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>0</v>
+      </c>
+      <c r="N24">
+        <v>2.51566798917645</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.1569161479392562</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>1.154007660763</v>
+      </c>
+      <c r="E25">
+        <v>0.540321076699243</v>
+      </c>
+      <c r="F25">
+        <v>12.08402978244385</v>
+      </c>
+      <c r="G25">
+        <v>0.002219042285101898</v>
+      </c>
+      <c r="H25">
+        <v>0</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>0</v>
+      </c>
+      <c r="K25">
+        <v>0</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>0</v>
+      </c>
+      <c r="N25">
+        <v>2.215498394811902</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,46 +415,52 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0</v>
+        <v>0.1971170459866016</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0</v>
+        <v>0.0201293694715261</v>
       </c>
       <c r="E2">
-        <v>0</v>
+        <v>1.365381729439648</v>
       </c>
       <c r="F2">
-        <v>0</v>
+        <v>0.997257651950207</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>0.9411662921415029</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>0.01243647966831535</v>
       </c>
       <c r="I2">
-        <v>0</v>
+        <v>0.002522640974551127</v>
       </c>
       <c r="J2">
-        <v>0</v>
+        <v>0.5739721335507824</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>0.2687392353998703</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0</v>
+        <v>3.081166776351523</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -462,120 +468,1230 @@
       <c r="O2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:15">
+      <c r="P2">
+        <v>0.7380019029684157</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="4" spans="1:15">
+      <c r="B3">
+        <v>0.1716799318117666</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
+      <c r="D3">
+        <v>0.01937421670808703</v>
+      </c>
+      <c r="E3">
+        <v>1.186013333457481</v>
+      </c>
+      <c r="F3">
+        <v>0.8981326420620377</v>
+      </c>
+      <c r="G3">
+        <v>0.8445045247581646</v>
+      </c>
+      <c r="H3">
+        <v>0.008595976921825094</v>
+      </c>
+      <c r="I3">
+        <v>0.003348803734602779</v>
+      </c>
+      <c r="J3">
+        <v>0.5337779091223354</v>
+      </c>
+      <c r="K3">
+        <v>0.2757644373811576</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>2.676956327339695</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+      <c r="P3">
+        <v>0.7703641134029362</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:15">
+      <c r="B4">
+        <v>0.1556957380326622</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>0.01889325426816235</v>
+      </c>
+      <c r="E4">
+        <v>1.076472339055528</v>
+      </c>
+      <c r="F4">
+        <v>0.8383554531207835</v>
+      </c>
+      <c r="G4">
+        <v>0.7861840198367247</v>
+      </c>
+      <c r="H4">
+        <v>0.006529924191658543</v>
+      </c>
+      <c r="I4">
+        <v>0.003975704231089505</v>
+      </c>
+      <c r="J4">
+        <v>0.5096947043133468</v>
+      </c>
+      <c r="K4">
+        <v>0.2801848892071366</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>2.430322537449854</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+      <c r="P4">
+        <v>0.790807556122942</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
-    </row>
-    <row r="6" spans="1:15">
+      <c r="B5">
+        <v>0.1482995149615078</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>0.01870443314401982</v>
+      </c>
+      <c r="E5">
+        <v>1.031946152304229</v>
+      </c>
+      <c r="F5">
+        <v>0.8136996357067829</v>
+      </c>
+      <c r="G5">
+        <v>0.7620330513785092</v>
+      </c>
+      <c r="H5">
+        <v>0.005754661680227757</v>
+      </c>
+      <c r="I5">
+        <v>0.004338573518207767</v>
+      </c>
+      <c r="J5">
+        <v>0.4997005679176851</v>
+      </c>
+      <c r="K5">
+        <v>0.2816910830131647</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>2.331553133520572</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+      <c r="P5">
+        <v>0.7991252045701831</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="7" spans="1:15">
+      <c r="B6">
+        <v>0.1460984196083501</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="D6">
+        <v>0.01868687355299237</v>
+      </c>
+      <c r="E6">
+        <v>1.024551969445085</v>
+      </c>
+      <c r="F6">
+        <v>0.8089584599407118</v>
+      </c>
+      <c r="G6">
+        <v>0.7572844371915579</v>
+      </c>
+      <c r="H6">
+        <v>0.005629199484403768</v>
+      </c>
+      <c r="I6">
+        <v>0.00450384345952326</v>
+      </c>
+      <c r="J6">
+        <v>0.4976620119588517</v>
+      </c>
+      <c r="K6">
+        <v>0.2815521345558096</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>2.316894223351909</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+      <c r="P6">
+        <v>0.8003314613110613</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
-    </row>
-    <row r="8" spans="1:15">
+      <c r="B7">
+        <v>0.1529408324740444</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
+      </c>
+      <c r="D7">
+        <v>0.01892938642043163</v>
+      </c>
+      <c r="E7">
+        <v>1.075852285514429</v>
+      </c>
+      <c r="F7">
+        <v>0.8362158145095719</v>
+      </c>
+      <c r="G7">
+        <v>0.7838040331966738</v>
+      </c>
+      <c r="H7">
+        <v>0.006517427529728614</v>
+      </c>
+      <c r="I7">
+        <v>0.004246816460141467</v>
+      </c>
+      <c r="J7">
+        <v>0.5085031492671703</v>
+      </c>
+      <c r="K7">
+        <v>0.2791404488675511</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>2.433707580351694</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+      <c r="P7">
+        <v>0.7904352309183489</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
-    </row>
-    <row r="9" spans="1:15">
+      <c r="B8">
+        <v>0.1848736562026403</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
+      </c>
+      <c r="D8">
+        <v>0.01992521654046087</v>
+      </c>
+      <c r="E8">
+        <v>1.303367640061666</v>
+      </c>
+      <c r="F8">
+        <v>0.9604437365090064</v>
+      </c>
+      <c r="G8">
+        <v>0.9048841976627671</v>
+      </c>
+      <c r="H8">
+        <v>0.01104496878935471</v>
+      </c>
+      <c r="I8">
+        <v>0.003102851848208132</v>
+      </c>
+      <c r="J8">
+        <v>0.5585855097049546</v>
+      </c>
+      <c r="K8">
+        <v>0.2697509570289682</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>2.947727244638088</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+      <c r="P8">
+        <v>0.7484782482928161</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
-    </row>
-    <row r="10" spans="1:15">
+      <c r="B9">
+        <v>0.2493013016697745</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
+      </c>
+      <c r="D9">
+        <v>0.0216648715732255</v>
+      </c>
+      <c r="E9">
+        <v>1.755738110662449</v>
+      </c>
+      <c r="F9">
+        <v>1.217314934775914</v>
+      </c>
+      <c r="G9">
+        <v>1.155627000568444</v>
+      </c>
+      <c r="H9">
+        <v>0.0225438188117919</v>
+      </c>
+      <c r="I9">
+        <v>0.001460066082167977</v>
+      </c>
+      <c r="J9">
+        <v>0.6640815999199674</v>
+      </c>
+      <c r="K9">
+        <v>0.2540880561916659</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3.962531215521722</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+      <c r="P9">
+        <v>0.671699689777606</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
-    </row>
-    <row r="11" spans="1:15">
+      <c r="B10">
+        <v>0.2948467314987795</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
+      </c>
+      <c r="D10">
+        <v>0.02350141157467434</v>
+      </c>
+      <c r="E10">
+        <v>1.990177200583929</v>
+      </c>
+      <c r="F10">
+        <v>1.393829829388167</v>
+      </c>
+      <c r="G10">
+        <v>1.32458524435873</v>
+      </c>
+      <c r="H10">
+        <v>0.03212485120022102</v>
+      </c>
+      <c r="I10">
+        <v>0.001093355848174049</v>
+      </c>
+      <c r="J10">
+        <v>0.7345262242371007</v>
+      </c>
+      <c r="K10">
+        <v>0.2411653497090445</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>4.686872691105066</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+      <c r="P10">
+        <v>0.6188876307425009</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:15">
+      <c r="B11">
+        <v>0.3244087846779991</v>
+      </c>
+      <c r="C11">
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <v>0.03086008837325949</v>
+      </c>
+      <c r="E11">
+        <v>1.295265060120812</v>
+      </c>
+      <c r="F11">
+        <v>1.305949025326584</v>
+      </c>
+      <c r="G11">
+        <v>1.210707318089192</v>
+      </c>
+      <c r="H11">
+        <v>0.04713955688677984</v>
+      </c>
+      <c r="I11">
+        <v>0.001555164100837558</v>
+      </c>
+      <c r="J11">
+        <v>0.6735127235893117</v>
+      </c>
+      <c r="K11">
+        <v>0.2219773135929231</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>4.702632771146625</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <v>0.6049160323969893</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="13" spans="1:15">
+      <c r="B12">
+        <v>0.3450159342816761</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
+      </c>
+      <c r="D12">
+        <v>0.03789708396911351</v>
+      </c>
+      <c r="E12">
+        <v>0.7929871748307562</v>
+      </c>
+      <c r="F12">
+        <v>1.199788492147633</v>
+      </c>
+      <c r="G12">
+        <v>1.086914167132988</v>
+      </c>
+      <c r="H12">
+        <v>0.0824160936647047</v>
+      </c>
+      <c r="I12">
+        <v>0.001548377868961559</v>
+      </c>
+      <c r="J12">
+        <v>0.6105916660207242</v>
+      </c>
+      <c r="K12">
+        <v>0.2110626947612175</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>4.556448755239899</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+      <c r="P12">
+        <v>0.6102249363695833</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="14" spans="1:15">
+      <c r="B13">
+        <v>0.3555328519295813</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>0.04502491819518184</v>
+      </c>
+      <c r="E13">
+        <v>0.4107054644946118</v>
+      </c>
+      <c r="F13">
+        <v>1.07121464338401</v>
+      </c>
+      <c r="G13">
+        <v>0.9458881136711739</v>
+      </c>
+      <c r="H13">
+        <v>0.1346278675274988</v>
+      </c>
+      <c r="I13">
+        <v>0.001554074857707199</v>
+      </c>
+      <c r="J13">
+        <v>0.5412094593116024</v>
+      </c>
+      <c r="K13">
+        <v>0.2041515432167271</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>4.286633301946893</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+      <c r="P13">
+        <v>0.6291515272689701</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="15" spans="1:15">
+      <c r="B14">
+        <v>0.357424379080129</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
+      </c>
+      <c r="D14">
+        <v>0.05016007850884563</v>
+      </c>
+      <c r="E14">
+        <v>0.216320024862469</v>
+      </c>
+      <c r="F14">
+        <v>0.972047070921505</v>
+      </c>
+      <c r="G14">
+        <v>0.8406897141272225</v>
+      </c>
+      <c r="H14">
+        <v>0.1815936005751695</v>
+      </c>
+      <c r="I14">
+        <v>0.001655583374145841</v>
+      </c>
+      <c r="J14">
+        <v>0.4902508230307774</v>
+      </c>
+      <c r="K14">
+        <v>0.2010591061655118</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>4.045837115612926</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+      <c r="P14">
+        <v>0.6490366797129568</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="16" spans="1:15">
+      <c r="B15">
+        <v>0.3543788837630046</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
+      </c>
+      <c r="D15">
+        <v>0.05128170221937012</v>
+      </c>
+      <c r="E15">
+        <v>0.1778792810205552</v>
+      </c>
+      <c r="F15">
+        <v>0.9424437123747254</v>
+      </c>
+      <c r="G15">
+        <v>0.8103999157986124</v>
+      </c>
+      <c r="H15">
+        <v>0.1933025999052376</v>
+      </c>
+      <c r="I15">
+        <v>0.001807293993205228</v>
+      </c>
+      <c r="J15">
+        <v>0.4760157717390854</v>
+      </c>
+      <c r="K15">
+        <v>0.2008231521494235</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>3.963017794430982</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+      <c r="P15">
+        <v>0.656248261031422</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
-    </row>
-    <row r="17" spans="1:1">
+      <c r="B16">
+        <v>0.3305769339853271</v>
+      </c>
+      <c r="C16">
+        <v>0</v>
+      </c>
+      <c r="D16">
+        <v>0.04876434768273441</v>
+      </c>
+      <c r="E16">
+        <v>0.1720262613418413</v>
+      </c>
+      <c r="F16">
+        <v>0.8947030855141804</v>
+      </c>
+      <c r="G16">
+        <v>0.7689823411166543</v>
+      </c>
+      <c r="H16">
+        <v>0.1776656596308754</v>
+      </c>
+      <c r="I16">
+        <v>0.002091056089824406</v>
+      </c>
+      <c r="J16">
+        <v>0.4607344902399291</v>
+      </c>
+      <c r="K16">
+        <v>0.2069289803489243</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>3.717922125510711</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+      <c r="P16">
+        <v>0.6723284777646938</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="18" spans="1:1">
+      <c r="B17">
+        <v>0.3112538640851454</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
+      </c>
+      <c r="D17">
+        <v>0.04406636559580335</v>
+      </c>
+      <c r="E17">
+        <v>0.2565582320229822</v>
+      </c>
+      <c r="F17">
+        <v>0.9100204579377333</v>
+      </c>
+      <c r="G17">
+        <v>0.7920217223318105</v>
+      </c>
+      <c r="H17">
+        <v>0.138823298973989</v>
+      </c>
+      <c r="I17">
+        <v>0.002285069591299482</v>
+      </c>
+      <c r="J17">
+        <v>0.4756690706511932</v>
+      </c>
+      <c r="K17">
+        <v>0.2131945910178361</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>3.656614134714687</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+      <c r="P17">
+        <v>0.6741865051414919</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="19" spans="1:1">
+      <c r="B18">
+        <v>0.2963830052246834</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
+      </c>
+      <c r="D18">
+        <v>0.03744038528849813</v>
+      </c>
+      <c r="E18">
+        <v>0.4921533159822147</v>
+      </c>
+      <c r="F18">
+        <v>0.9840741153796984</v>
+      </c>
+      <c r="G18">
+        <v>0.8771638137995552</v>
+      </c>
+      <c r="H18">
+        <v>0.08683982791773559</v>
+      </c>
+      <c r="I18">
+        <v>0.002096888774985928</v>
+      </c>
+      <c r="J18">
+        <v>0.5200623124602544</v>
+      </c>
+      <c r="K18">
+        <v>0.2213156170217934</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>3.743691987414081</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+      <c r="P18">
+        <v>0.6659963141486145</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
-    </row>
-    <row r="20" spans="1:1">
+      <c r="B19">
+        <v>0.2810653928368367</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
+      </c>
+      <c r="D19">
+        <v>0.03068371437749917</v>
+      </c>
+      <c r="E19">
+        <v>0.9313065509531526</v>
+      </c>
+      <c r="F19">
+        <v>1.100716295881639</v>
+      </c>
+      <c r="G19">
+        <v>1.008319783333036</v>
+      </c>
+      <c r="H19">
+        <v>0.04481266012196272</v>
+      </c>
+      <c r="I19">
+        <v>0.002163938758481088</v>
+      </c>
+      <c r="J19">
+        <v>0.5855489917264407</v>
+      </c>
+      <c r="K19">
+        <v>0.2299115646636842</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>3.957201226553821</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+      <c r="P19">
+        <v>0.6547981931156919</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
-    </row>
-    <row r="21" spans="1:1">
+      <c r="B20">
+        <v>0.2746251903914612</v>
+      </c>
+      <c r="C20">
+        <v>0</v>
+      </c>
+      <c r="D20">
+        <v>0.02318390236119328</v>
+      </c>
+      <c r="E20">
+        <v>1.923914983883918</v>
+      </c>
+      <c r="F20">
+        <v>1.340457385370698</v>
+      </c>
+      <c r="G20">
+        <v>1.272330564727071</v>
+      </c>
+      <c r="H20">
+        <v>0.02940418597370753</v>
+      </c>
+      <c r="I20">
+        <v>0.00195340807450517</v>
+      </c>
+      <c r="J20">
+        <v>0.7120121300451672</v>
+      </c>
+      <c r="K20">
+        <v>0.2413787083372849</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>4.509199363629705</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20">
+        <v>0.6317162044211173</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="B21">
+        <v>0.3083496962966592</v>
+      </c>
+      <c r="C21">
+        <v>0</v>
+      </c>
+      <c r="D21">
+        <v>0.02356197769971402</v>
+      </c>
+      <c r="E21">
+        <v>2.26687319103678</v>
+      </c>
+      <c r="F21">
+        <v>1.510540518573478</v>
+      </c>
+      <c r="G21">
+        <v>1.44098485235105</v>
+      </c>
+      <c r="H21">
+        <v>0.0389414079724606</v>
+      </c>
+      <c r="I21">
+        <v>0.001722111007103067</v>
+      </c>
+      <c r="J21">
+        <v>0.7851835343202254</v>
+      </c>
+      <c r="K21">
+        <v>0.2346752070932894</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>5.125552442467949</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+      <c r="P21">
+        <v>0.5918557543303384</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:1">
+      <c r="B22">
+        <v>0.3342657422443978</v>
+      </c>
+      <c r="C22">
+        <v>0</v>
+      </c>
+      <c r="D22">
+        <v>0.02405553374662261</v>
+      </c>
+      <c r="E22">
+        <v>2.440123434483269</v>
+      </c>
+      <c r="F22">
+        <v>1.616379980495608</v>
+      </c>
+      <c r="G22">
+        <v>1.544815601084224</v>
+      </c>
+      <c r="H22">
+        <v>0.04524205522919811</v>
+      </c>
+      <c r="I22">
+        <v>0.001410258013590848</v>
+      </c>
+      <c r="J22">
+        <v>0.8300025273287872</v>
+      </c>
+      <c r="K22">
+        <v>0.230931960484952</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>5.507178959814723</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+      <c r="P22">
+        <v>0.5670683457851382</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
-    </row>
-    <row r="24" spans="1:1">
+      <c r="B23">
+        <v>0.3236689657787224</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
+      </c>
+      <c r="D23">
+        <v>0.02374328428560091</v>
+      </c>
+      <c r="E23">
+        <v>2.347496658894528</v>
+      </c>
+      <c r="F23">
+        <v>1.561802651666255</v>
+      </c>
+      <c r="G23">
+        <v>1.491604843105051</v>
+      </c>
+      <c r="H23">
+        <v>0.04183193725513945</v>
+      </c>
+      <c r="I23">
+        <v>0.001253845956494359</v>
+      </c>
+      <c r="J23">
+        <v>0.8072053875658867</v>
+      </c>
+      <c r="K23">
+        <v>0.2340740675299724</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>5.297362384357825</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+      <c r="P23">
+        <v>0.5805068067997476</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
-    </row>
-    <row r="25" spans="1:1">
+      <c r="B24">
+        <v>0.2777734623188621</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
+      </c>
+      <c r="D24">
+        <v>0.02260184741783178</v>
+      </c>
+      <c r="E24">
+        <v>2.000435830656272</v>
+      </c>
+      <c r="F24">
+        <v>1.356368982655184</v>
+      </c>
+      <c r="G24">
+        <v>1.29087688071246</v>
+      </c>
+      <c r="H24">
+        <v>0.02997425812216337</v>
+      </c>
+      <c r="I24">
+        <v>0.001443604017210554</v>
+      </c>
+      <c r="J24">
+        <v>0.7212703122359869</v>
+      </c>
+      <c r="K24">
+        <v>0.244444874112439</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>4.519978984326315</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+      <c r="P24">
+        <v>0.6324372801440861</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
+      </c>
+      <c r="B25">
+        <v>0.2273330766485628</v>
+      </c>
+      <c r="C25">
+        <v>0</v>
+      </c>
+      <c r="D25">
+        <v>0.02128441662948077</v>
+      </c>
+      <c r="E25">
+        <v>1.632441153357078</v>
+      </c>
+      <c r="F25">
+        <v>1.143272232541449</v>
+      </c>
+      <c r="G25">
+        <v>1.082828759739684</v>
+      </c>
+      <c r="H25">
+        <v>0.01910445254102711</v>
+      </c>
+      <c r="I25">
+        <v>0.00223966657670438</v>
+      </c>
+      <c r="J25">
+        <v>0.6329633366200937</v>
+      </c>
+      <c r="K25">
+        <v>0.2563849261956577</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>3.694588381103131</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
+        <v>0</v>
+      </c>
+      <c r="P25">
+        <v>0.6913113585194344</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_57/res_line/pl_mw.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.1971170459866016</v>
+        <v>0.177810474537921</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.0201293694715261</v>
+        <v>0.02096858802139678</v>
       </c>
       <c r="E2">
-        <v>1.365381729439648</v>
+        <v>1.361894982781223</v>
       </c>
       <c r="F2">
-        <v>0.997257651950207</v>
+        <v>0.9875314616155322</v>
       </c>
       <c r="G2">
-        <v>0.9411662921415029</v>
+        <v>0.9077693175360224</v>
       </c>
       <c r="H2">
-        <v>0.01243647966831535</v>
+        <v>0.01204706715463844</v>
       </c>
       <c r="I2">
-        <v>0.002522640974551127</v>
+        <v>0.001415405004003389</v>
       </c>
       <c r="J2">
-        <v>0.5739721335507824</v>
+        <v>0.6214103453965407</v>
       </c>
       <c r="K2">
-        <v>0.2687392353998703</v>
+        <v>0.239273200833555</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>0.1236890837387783</v>
       </c>
       <c r="M2">
-        <v>3.081166776351523</v>
+        <v>0.06235138943558294</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>3.092177284974866</v>
       </c>
       <c r="P2">
-        <v>0.7380019029684157</v>
+        <v>0</v>
       </c>
       <c r="Q2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:17">
+      <c r="R2">
+        <v>0.7158733041156795</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.1716799318117666</v>
+        <v>0.1583691424832381</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.01937421670808703</v>
+        <v>0.01998867154421369</v>
       </c>
       <c r="E3">
-        <v>1.186013333457481</v>
+        <v>1.183541148851816</v>
       </c>
       <c r="F3">
-        <v>0.8981326420620377</v>
+        <v>0.892318277517731</v>
       </c>
       <c r="G3">
-        <v>0.8445045247581646</v>
+        <v>0.8152651660731891</v>
       </c>
       <c r="H3">
-        <v>0.008595976921825094</v>
+        <v>0.008346966950219914</v>
       </c>
       <c r="I3">
-        <v>0.003348803734602779</v>
+        <v>0.001855475184174615</v>
       </c>
       <c r="J3">
-        <v>0.5337779091223354</v>
+        <v>0.5803523015274834</v>
       </c>
       <c r="K3">
-        <v>0.2757644373811576</v>
+        <v>0.2464510363341201</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>0.1287321044333591</v>
       </c>
       <c r="M3">
-        <v>2.676956327339695</v>
+        <v>0.06435209305148382</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>2.680146274634609</v>
       </c>
       <c r="P3">
-        <v>0.7703641134029362</v>
+        <v>0</v>
       </c>
       <c r="Q3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:17">
+      <c r="R3">
+        <v>0.7458394442859237</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.1556957380326622</v>
+        <v>0.1459767405541328</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.01889325426816235</v>
+        <v>0.01937160448735042</v>
       </c>
       <c r="E4">
-        <v>1.076472339055528</v>
+        <v>1.074569176360882</v>
       </c>
       <c r="F4">
-        <v>0.8383554531207835</v>
+        <v>0.8347647502872491</v>
       </c>
       <c r="G4">
-        <v>0.7861840198367247</v>
+        <v>0.7595629178589292</v>
       </c>
       <c r="H4">
-        <v>0.006529924191658543</v>
+        <v>0.006353474604570142</v>
       </c>
       <c r="I4">
-        <v>0.003975704231089505</v>
+        <v>0.002219534635822917</v>
       </c>
       <c r="J4">
-        <v>0.5096947043133468</v>
+        <v>0.5553586664130847</v>
       </c>
       <c r="K4">
-        <v>0.2801848892071366</v>
+        <v>0.250923839137398</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>0.1320473586332156</v>
       </c>
       <c r="M4">
-        <v>2.430322537449854</v>
+        <v>0.06591493050371877</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>2.42880288331304</v>
       </c>
       <c r="P4">
-        <v>0.790807556122942</v>
+        <v>0</v>
       </c>
       <c r="Q4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:17">
+      <c r="R4">
+        <v>0.7648255687015793</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1482995149615078</v>
+        <v>0.1400998900708998</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.01870443314401982</v>
+        <v>0.01912703558136464</v>
       </c>
       <c r="E5">
-        <v>1.031946152304229</v>
+        <v>1.030263915807012</v>
       </c>
       <c r="F5">
-        <v>0.8136996357067829</v>
+        <v>0.8110158025938148</v>
       </c>
       <c r="G5">
-        <v>0.7620330513785092</v>
+        <v>0.736546042853405</v>
       </c>
       <c r="H5">
-        <v>0.005754661680227757</v>
+        <v>0.005604771592816249</v>
       </c>
       <c r="I5">
-        <v>0.004338573518207767</v>
+        <v>0.00247877387743678</v>
       </c>
       <c r="J5">
-        <v>0.4997005679176851</v>
+        <v>0.5449224272674513</v>
       </c>
       <c r="K5">
-        <v>0.2816910830131647</v>
+        <v>0.2524827684657733</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>0.1332768502959194</v>
       </c>
       <c r="M5">
-        <v>2.331553133520572</v>
+        <v>0.06660008234701542</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>2.328042065224082</v>
       </c>
       <c r="P5">
-        <v>0.7991252045701831</v>
+        <v>0</v>
       </c>
       <c r="Q5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:17">
+      <c r="R5">
+        <v>0.7725821585549779</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1460984196083501</v>
+        <v>0.1382465823924264</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01868687355299237</v>
+        <v>0.01909931742800097</v>
       </c>
       <c r="E6">
-        <v>1.024551969445085</v>
+        <v>1.022906747498283</v>
       </c>
       <c r="F6">
-        <v>0.8089584599407118</v>
+        <v>0.806475266121879</v>
       </c>
       <c r="G6">
-        <v>0.7572844371915579</v>
+        <v>0.7320517223147789</v>
       </c>
       <c r="H6">
-        <v>0.005629199484403768</v>
+        <v>0.005483633492325835</v>
       </c>
       <c r="I6">
-        <v>0.00450384345952326</v>
+        <v>0.002639828628005603</v>
       </c>
       <c r="J6">
-        <v>0.4976620119588517</v>
+        <v>0.5428280927703071</v>
       </c>
       <c r="K6">
-        <v>0.2815521345558096</v>
+        <v>0.2524031212715521</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>0.1332706279699369</v>
       </c>
       <c r="M6">
-        <v>2.316894223351909</v>
+        <v>0.06667486931266797</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>2.31293116975948</v>
       </c>
       <c r="P6">
-        <v>0.8003314613110613</v>
+        <v>0</v>
       </c>
       <c r="Q6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:17">
+      <c r="R6">
+        <v>0.7737311340404887</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1529408324740444</v>
+        <v>0.1437792390944281</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.01892938642043163</v>
+        <v>0.01946432159925138</v>
       </c>
       <c r="E7">
-        <v>1.075852285514429</v>
+        <v>1.073881485109311</v>
       </c>
       <c r="F7">
-        <v>0.8362158145095719</v>
+        <v>0.830586231019339</v>
       </c>
       <c r="G7">
-        <v>0.7838040331966738</v>
+        <v>0.7613545062547331</v>
       </c>
       <c r="H7">
-        <v>0.006517427529728614</v>
+        <v>0.006334832479290786</v>
       </c>
       <c r="I7">
-        <v>0.004246816460141467</v>
+        <v>0.002525717207539024</v>
       </c>
       <c r="J7">
-        <v>0.5085031492671703</v>
+        <v>0.5461430181034359</v>
       </c>
       <c r="K7">
-        <v>0.2791404488675511</v>
+        <v>0.2498625061736472</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>0.1314075728577926</v>
       </c>
       <c r="M7">
-        <v>2.433707580351694</v>
+        <v>0.06575823774736644</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>2.427641145192496</v>
       </c>
       <c r="P7">
-        <v>0.7904352309183489</v>
+        <v>0</v>
       </c>
       <c r="Q7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:17">
+      <c r="R7">
+        <v>0.7644866382618529</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.1848736562026403</v>
+        <v>0.1689292153996291</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01992521654046087</v>
+        <v>0.02088960073660218</v>
       </c>
       <c r="E8">
-        <v>1.303367640061666</v>
+        <v>1.299992129493603</v>
       </c>
       <c r="F8">
-        <v>0.9604437365090064</v>
+        <v>0.944966938256087</v>
       </c>
       <c r="G8">
-        <v>0.9048841976627671</v>
+        <v>0.8865053006083627</v>
       </c>
       <c r="H8">
-        <v>0.01104496878935471</v>
+        <v>0.01067997998668238</v>
       </c>
       <c r="I8">
-        <v>0.003102851848208132</v>
+        <v>0.001917541457647332</v>
       </c>
       <c r="J8">
-        <v>0.5585855097049546</v>
+        <v>0.5791490108618547</v>
       </c>
       <c r="K8">
-        <v>0.2697509570289682</v>
+        <v>0.2400584885050154</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>0.1244891535223278</v>
       </c>
       <c r="M8">
-        <v>2.947727244638088</v>
+        <v>0.0625927193444662</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>2.941487966356448</v>
       </c>
       <c r="P8">
-        <v>0.7484782482928161</v>
+        <v>0</v>
       </c>
       <c r="Q8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:17">
+      <c r="R8">
+        <v>0.7255935707537873</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.2493013016697745</v>
+        <v>0.2178551224866823</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.0216648715732255</v>
+        <v>0.02327014143754624</v>
       </c>
       <c r="E9">
-        <v>1.755738110662449</v>
+        <v>1.749339318617217</v>
       </c>
       <c r="F9">
-        <v>1.217314934775914</v>
+        <v>1.18866246635541</v>
       </c>
       <c r="G9">
-        <v>1.155627000568444</v>
+        <v>1.131039079763184</v>
       </c>
       <c r="H9">
-        <v>0.0225438188117919</v>
+        <v>0.02171697109184256</v>
       </c>
       <c r="I9">
-        <v>0.001460066082167977</v>
+        <v>0.001040014676113366</v>
       </c>
       <c r="J9">
-        <v>0.6640815999199674</v>
+        <v>0.6766126554190492</v>
       </c>
       <c r="K9">
-        <v>0.2540880561916659</v>
+        <v>0.2235256483507584</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>0.1138269427729766</v>
       </c>
       <c r="M9">
-        <v>3.962531215521722</v>
+        <v>0.05949983443389328</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>3.972172667074574</v>
       </c>
       <c r="P9">
-        <v>0.671699689777606</v>
+        <v>0</v>
       </c>
       <c r="Q9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:17">
+      <c r="R9">
+        <v>0.6549009177331655</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.2948467314987795</v>
+        <v>0.2539643686535555</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.02350141157467434</v>
+        <v>0.02602058906544613</v>
       </c>
       <c r="E10">
-        <v>1.990177200583929</v>
+        <v>1.980895007905346</v>
       </c>
       <c r="F10">
-        <v>1.393829829388167</v>
+        <v>1.342190534778126</v>
       </c>
       <c r="G10">
-        <v>1.32458524435873</v>
+        <v>1.3208960636928</v>
       </c>
       <c r="H10">
-        <v>0.03212485120022102</v>
+        <v>0.03081531681184524</v>
       </c>
       <c r="I10">
-        <v>0.001093355848174049</v>
+        <v>0.001094485614893337</v>
       </c>
       <c r="J10">
-        <v>0.7345262242371007</v>
+        <v>0.6931832647254055</v>
       </c>
       <c r="K10">
-        <v>0.2411653497090445</v>
+        <v>0.2096031923528692</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>0.106340416421153</v>
       </c>
       <c r="M10">
-        <v>4.686872691105066</v>
+        <v>0.05791680548314382</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>4.68101083585816</v>
       </c>
       <c r="P10">
-        <v>0.6188876307425009</v>
+        <v>0</v>
       </c>
       <c r="Q10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:17">
+      <c r="R10">
+        <v>0.6076627498210794</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.3244087846779991</v>
+        <v>0.2880209624136825</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.03086008837325949</v>
+        <v>0.03514794469973737</v>
       </c>
       <c r="E11">
-        <v>1.295265060120812</v>
+        <v>1.286521969610291</v>
       </c>
       <c r="F11">
-        <v>1.305949025326584</v>
+        <v>1.23062603018677</v>
       </c>
       <c r="G11">
-        <v>1.210707318089192</v>
+        <v>1.260927871859394</v>
       </c>
       <c r="H11">
-        <v>0.04713955688677984</v>
+        <v>0.04574913950654746</v>
       </c>
       <c r="I11">
-        <v>0.001555164100837558</v>
+        <v>0.001733560837218207</v>
       </c>
       <c r="J11">
-        <v>0.6735127235893117</v>
+        <v>0.5472485832062972</v>
       </c>
       <c r="K11">
-        <v>0.2219773135929231</v>
+        <v>0.1935164282255979</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>0.1001834195750653</v>
       </c>
       <c r="M11">
-        <v>4.702632771146625</v>
+        <v>0.05293235692483123</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>4.635959543518084</v>
       </c>
       <c r="P11">
-        <v>0.6049160323969893</v>
+        <v>0</v>
       </c>
       <c r="Q11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:17">
+      <c r="R11">
+        <v>0.6041806200065025</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.3450159342816761</v>
+        <v>0.3133605416088585</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.03789708396911351</v>
+        <v>0.04341742607081045</v>
       </c>
       <c r="E12">
-        <v>0.7929871748307562</v>
+        <v>0.7855049899264515</v>
       </c>
       <c r="F12">
-        <v>1.199788492147633</v>
+        <v>1.118238209454447</v>
       </c>
       <c r="G12">
-        <v>1.086914167132988</v>
+        <v>1.160234048315772</v>
       </c>
       <c r="H12">
-        <v>0.0824160936647047</v>
+        <v>0.08107965256859728</v>
       </c>
       <c r="I12">
-        <v>0.001548377868961559</v>
+        <v>0.001733018258841312</v>
       </c>
       <c r="J12">
-        <v>0.6105916660207242</v>
+        <v>0.4583675344609617</v>
       </c>
       <c r="K12">
-        <v>0.2110626947612175</v>
+        <v>0.1854307074957537</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>0.09758068232991857</v>
       </c>
       <c r="M12">
-        <v>4.556448755239899</v>
+        <v>0.04982956418247841</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>4.459312154352631</v>
       </c>
       <c r="P12">
-        <v>0.6102249363695833</v>
+        <v>0</v>
       </c>
       <c r="Q12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:17">
+      <c r="R12">
+        <v>0.6169124681741849</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.3555328519295813</v>
+        <v>0.3288518201611623</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.04502491819518184</v>
+        <v>0.05078742894998811</v>
       </c>
       <c r="E13">
-        <v>0.4107054644946118</v>
+        <v>0.4049094162485005</v>
       </c>
       <c r="F13">
-        <v>1.07121464338401</v>
+        <v>1.000367635176985</v>
       </c>
       <c r="G13">
-        <v>0.9458881136711739</v>
+        <v>1.012549477533796</v>
       </c>
       <c r="H13">
-        <v>0.1346278675274988</v>
+        <v>0.1334550977034468</v>
       </c>
       <c r="I13">
-        <v>0.001554074857707199</v>
+        <v>0.001686068586658429</v>
       </c>
       <c r="J13">
-        <v>0.5412094593116024</v>
+        <v>0.4123530638181734</v>
       </c>
       <c r="K13">
-        <v>0.2041515432167271</v>
+        <v>0.1815370884502672</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>0.09656648879579577</v>
       </c>
       <c r="M13">
-        <v>4.286633301946893</v>
+        <v>0.04770567133852488</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>4.189802430297959</v>
       </c>
       <c r="P13">
-        <v>0.6291515272689701</v>
+        <v>0</v>
       </c>
       <c r="Q13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:17">
+      <c r="R13">
+        <v>0.6390944140734547</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.357424379080129</v>
+        <v>0.3344409361814229</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.05016007850884563</v>
+        <v>0.05549524615936718</v>
       </c>
       <c r="E14">
-        <v>0.216320024862469</v>
+        <v>0.2117213498169477</v>
       </c>
       <c r="F14">
-        <v>0.972047070921505</v>
+        <v>0.9150955559251912</v>
       </c>
       <c r="G14">
-        <v>0.8406897141272225</v>
+        <v>0.8916345692688452</v>
       </c>
       <c r="H14">
-        <v>0.1815936005751695</v>
+        <v>0.1805684242626171</v>
       </c>
       <c r="I14">
-        <v>0.001655583374145841</v>
+        <v>0.001735178020985551</v>
       </c>
       <c r="J14">
-        <v>0.4902508230307774</v>
+        <v>0.395444289067413</v>
       </c>
       <c r="K14">
-        <v>0.2010591061655118</v>
+        <v>0.18045870614805</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>0.09637705337936378</v>
       </c>
       <c r="M14">
-        <v>4.045837115612926</v>
+        <v>0.04667928912571551</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>3.96156898943309</v>
       </c>
       <c r="P14">
-        <v>0.6490366797129568</v>
+        <v>0</v>
       </c>
       <c r="Q14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:17">
+      <c r="R14">
+        <v>0.6585406444684665</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.3543788837630046</v>
+        <v>0.3324553790726839</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.05128170221937012</v>
+        <v>0.05625756166153906</v>
       </c>
       <c r="E15">
-        <v>0.1778792810205552</v>
+        <v>0.1736343079214535</v>
       </c>
       <c r="F15">
-        <v>0.9424437123747254</v>
+        <v>0.8916570346581381</v>
       </c>
       <c r="G15">
-        <v>0.8103999157986124</v>
+        <v>0.8530783501681469</v>
       </c>
       <c r="H15">
-        <v>0.1933025999052376</v>
+        <v>0.192336188470378</v>
       </c>
       <c r="I15">
-        <v>0.001807293993205228</v>
+        <v>0.001879564037409409</v>
       </c>
       <c r="J15">
-        <v>0.4760157717390854</v>
+        <v>0.3971307808413371</v>
       </c>
       <c r="K15">
-        <v>0.2008231521494235</v>
+        <v>0.1807519062782728</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>0.09649755031638339</v>
       </c>
       <c r="M15">
-        <v>3.963017794430982</v>
+        <v>0.04656211521596987</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>3.88686447331213</v>
       </c>
       <c r="P15">
-        <v>0.656248261031422</v>
+        <v>0</v>
       </c>
       <c r="Q15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:17">
+      <c r="R15">
+        <v>0.664586468290743</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3305769339853271</v>
+        <v>0.309346347088308</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.04876434768273441</v>
+        <v>0.05180221299361421</v>
       </c>
       <c r="E16">
-        <v>0.1720262613418413</v>
+        <v>0.1685849640032515</v>
       </c>
       <c r="F16">
-        <v>0.8947030855141804</v>
+        <v>0.8674442559533873</v>
       </c>
       <c r="G16">
-        <v>0.7689823411166543</v>
+        <v>0.7743090723780597</v>
       </c>
       <c r="H16">
-        <v>0.1776656596308754</v>
+        <v>0.1769266264344651</v>
       </c>
       <c r="I16">
-        <v>0.002091056089824406</v>
+        <v>0.002030843896661416</v>
       </c>
       <c r="J16">
-        <v>0.4607344902399291</v>
+        <v>0.4492102959748365</v>
       </c>
       <c r="K16">
-        <v>0.2069289803489243</v>
+        <v>0.1869264436243983</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>0.09847903245571621</v>
       </c>
       <c r="M16">
-        <v>3.717922125510711</v>
+        <v>0.0482170173816705</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>3.684533600566454</v>
       </c>
       <c r="P16">
-        <v>0.6723284777646938</v>
+        <v>0</v>
       </c>
       <c r="Q16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:17">
+      <c r="R16">
+        <v>0.6724877106500244</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3112538640851454</v>
+        <v>0.289089843797953</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.04406636559580335</v>
+        <v>0.04627307033375416</v>
       </c>
       <c r="E17">
-        <v>0.2565582320229822</v>
+        <v>0.2531966407485058</v>
       </c>
       <c r="F17">
-        <v>0.9100204579377333</v>
+        <v>0.8914999744812633</v>
       </c>
       <c r="G17">
-        <v>0.7920217223318105</v>
+        <v>0.780727510300494</v>
       </c>
       <c r="H17">
-        <v>0.138823298973989</v>
+        <v>0.1381725910973728</v>
       </c>
       <c r="I17">
-        <v>0.002285069591299482</v>
+        <v>0.002150338759867587</v>
       </c>
       <c r="J17">
-        <v>0.4756690706511932</v>
+        <v>0.4932996532951535</v>
       </c>
       <c r="K17">
-        <v>0.2131945910178361</v>
+        <v>0.1923388843779978</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>0.1003995387084995</v>
       </c>
       <c r="M17">
-        <v>3.656614134714687</v>
+        <v>0.04990628748127612</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>3.643685708054647</v>
       </c>
       <c r="P17">
-        <v>0.6741865051414919</v>
+        <v>0</v>
       </c>
       <c r="Q17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:17">
+      <c r="R17">
+        <v>0.6700898183303963</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.2963830052246834</v>
+        <v>0.270986489969502</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.03744038528849813</v>
+        <v>0.03933069291872471</v>
       </c>
       <c r="E18">
-        <v>0.4921533159822147</v>
+        <v>0.488290432839058</v>
       </c>
       <c r="F18">
-        <v>0.9840741153796984</v>
+        <v>0.9668893926537265</v>
       </c>
       <c r="G18">
-        <v>0.8771638137995552</v>
+        <v>0.8561800502534282</v>
       </c>
       <c r="H18">
-        <v>0.08683982791773559</v>
+        <v>0.08618475191735087</v>
       </c>
       <c r="I18">
-        <v>0.002096888774985928</v>
+        <v>0.001895774514678372</v>
       </c>
       <c r="J18">
-        <v>0.5200623124602544</v>
+        <v>0.5494642353031765</v>
       </c>
       <c r="K18">
-        <v>0.2213156170217934</v>
+        <v>0.1986247812207509</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>0.1028219849143741</v>
       </c>
       <c r="M18">
-        <v>3.743691987414081</v>
+        <v>0.05204700794910799</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>3.744295667738186</v>
       </c>
       <c r="P18">
-        <v>0.6659963141486145</v>
+        <v>0</v>
       </c>
       <c r="Q18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:17">
+      <c r="R18">
+        <v>0.6591766618165629</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.2810653928368367</v>
+        <v>0.2513913285982028</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.03068371437749917</v>
+        <v>0.03248544311967194</v>
       </c>
       <c r="E19">
-        <v>0.9313065509531526</v>
+        <v>0.9263566967727854</v>
       </c>
       <c r="F19">
-        <v>1.100716295881639</v>
+        <v>1.080477981398118</v>
       </c>
       <c r="G19">
-        <v>1.008319783333036</v>
+        <v>0.980937750129101</v>
       </c>
       <c r="H19">
-        <v>0.04481266012196272</v>
+        <v>0.0440655093507516</v>
       </c>
       <c r="I19">
-        <v>0.002163938758481088</v>
+        <v>0.00201813035327536</v>
       </c>
       <c r="J19">
-        <v>0.5855489917264407</v>
+        <v>0.6169343172395543</v>
       </c>
       <c r="K19">
-        <v>0.2299115646636842</v>
+        <v>0.2047847955791706</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>0.1052810385561873</v>
       </c>
       <c r="M19">
-        <v>3.957201226553821</v>
+        <v>0.05424784155498052</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>3.968004625792503</v>
       </c>
       <c r="P19">
-        <v>0.6547981931156919</v>
+        <v>0</v>
       </c>
       <c r="Q19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:17">
+      <c r="R19">
+        <v>0.6456578981555054</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.2746251903914612</v>
+        <v>0.236550185017748</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.02318390236119328</v>
+        <v>0.02520954237705553</v>
       </c>
       <c r="E20">
-        <v>1.923914983883918</v>
+        <v>1.915753098862282</v>
       </c>
       <c r="F20">
-        <v>1.340457385370698</v>
+        <v>1.303528706360694</v>
       </c>
       <c r="G20">
-        <v>1.272330564727071</v>
+        <v>1.248837974098677</v>
       </c>
       <c r="H20">
-        <v>0.02940418597370753</v>
+        <v>0.02827576436934587</v>
       </c>
       <c r="I20">
-        <v>0.00195340807450517</v>
+        <v>0.001999816634361551</v>
       </c>
       <c r="J20">
-        <v>0.7120121300451672</v>
+        <v>0.7136615200576841</v>
       </c>
       <c r="K20">
-        <v>0.2413787083372849</v>
+        <v>0.2113242140304408</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>0.1075044234958185</v>
       </c>
       <c r="M20">
-        <v>4.509199363629705</v>
+        <v>0.05750319838156592</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>4.522145347289154</v>
       </c>
       <c r="P20">
-        <v>0.6317162044211173</v>
+        <v>0</v>
       </c>
       <c r="Q20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="R20">
+        <v>0.6194429871647795</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.3083496962966592</v>
+        <v>0.2666553343637759</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.02356197769971402</v>
+        <v>0.0276125222630732</v>
       </c>
       <c r="E21">
-        <v>2.26687319103678</v>
+        <v>2.254159195052424</v>
       </c>
       <c r="F21">
-        <v>1.510540518573478</v>
+        <v>1.411285552319882</v>
       </c>
       <c r="G21">
-        <v>1.44098485235105</v>
+        <v>1.51382664894507</v>
       </c>
       <c r="H21">
-        <v>0.0389414079724606</v>
+        <v>0.03710517534443092</v>
       </c>
       <c r="I21">
-        <v>0.001722111007103067</v>
+        <v>0.002020450716374356</v>
       </c>
       <c r="J21">
-        <v>0.7851835343202254</v>
+        <v>0.6011475572776135</v>
       </c>
       <c r="K21">
-        <v>0.2346752070932894</v>
+        <v>0.2005214636851669</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>0.1023247419329607</v>
       </c>
       <c r="M21">
-        <v>5.125552442467949</v>
+        <v>0.05639858410855503</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>5.043914468164189</v>
       </c>
       <c r="P21">
-        <v>0.5918557543303384</v>
+        <v>0</v>
       </c>
       <c r="Q21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:17">
+      <c r="R21">
+        <v>0.5843881918932095</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.3342657422443978</v>
+        <v>0.2904715090148784</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.02405553374662261</v>
+        <v>0.0296579791830851</v>
       </c>
       <c r="E22">
-        <v>2.440123434483269</v>
+        <v>2.424287263177987</v>
       </c>
       <c r="F22">
-        <v>1.616379980495608</v>
+        <v>1.472230318491796</v>
       </c>
       <c r="G22">
-        <v>1.544815601084224</v>
+        <v>1.691436408073116</v>
       </c>
       <c r="H22">
-        <v>0.04524205522919811</v>
+        <v>0.04289288681147863</v>
       </c>
       <c r="I22">
-        <v>0.001410258013590848</v>
+        <v>0.001760202425886703</v>
       </c>
       <c r="J22">
-        <v>0.8300025273287872</v>
+        <v>0.5228528655729434</v>
       </c>
       <c r="K22">
-        <v>0.230931960484952</v>
+        <v>0.1938212429024553</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>0.09933489650844018</v>
       </c>
       <c r="M22">
-        <v>5.507178959814723</v>
+        <v>0.05597969298240812</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>5.355033689912602</v>
       </c>
       <c r="P22">
-        <v>0.5670683457851382</v>
+        <v>0</v>
       </c>
       <c r="Q22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:17">
+      <c r="R22">
+        <v>0.5633928036875151</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.3236689657787224</v>
+        <v>0.2798439757674629</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.02374328428560091</v>
+        <v>0.02829826476411768</v>
       </c>
       <c r="E23">
-        <v>2.347496658894528</v>
+        <v>2.33355785199258</v>
       </c>
       <c r="F23">
-        <v>1.561802651666255</v>
+        <v>1.447427638519656</v>
       </c>
       <c r="G23">
-        <v>1.491604843105051</v>
+        <v>1.586605381861347</v>
       </c>
       <c r="H23">
-        <v>0.04183193725513945</v>
+        <v>0.03979250792442013</v>
       </c>
       <c r="I23">
-        <v>0.001253845956494359</v>
+        <v>0.001522050148591525</v>
       </c>
       <c r="J23">
-        <v>0.8072053875658867</v>
+        <v>0.582655133964721</v>
       </c>
       <c r="K23">
-        <v>0.2340740675299724</v>
+        <v>0.1985258353579411</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>0.1012356272017634</v>
       </c>
       <c r="M23">
-        <v>5.297362384357825</v>
+        <v>0.05671815542777914</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>5.195275196745229</v>
       </c>
       <c r="P23">
-        <v>0.5805068067997476</v>
+        <v>0</v>
       </c>
       <c r="Q23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:17">
+      <c r="R23">
+        <v>0.5741360341919179</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.2777734623188621</v>
+        <v>0.2386243963338757</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.02260184741783178</v>
+        <v>0.02458932882241882</v>
       </c>
       <c r="E24">
-        <v>2.000435830656272</v>
+        <v>1.992094719576272</v>
       </c>
       <c r="F24">
-        <v>1.356368982655184</v>
+        <v>1.319079431237924</v>
       </c>
       <c r="G24">
-        <v>1.29087688071246</v>
+        <v>1.265767126770299</v>
       </c>
       <c r="H24">
-        <v>0.02997425812216337</v>
+        <v>0.02882881322132791</v>
       </c>
       <c r="I24">
-        <v>0.001443604017210554</v>
+        <v>0.001400161799471</v>
       </c>
       <c r="J24">
-        <v>0.7212703122359869</v>
+        <v>0.723973708646497</v>
       </c>
       <c r="K24">
-        <v>0.244444874112439</v>
+        <v>0.2136253213733088</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>0.1083801200647034</v>
       </c>
       <c r="M24">
-        <v>4.519978984326315</v>
+        <v>0.05836282310652052</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>4.5351914180074</v>
       </c>
       <c r="P24">
-        <v>0.6324372801440861</v>
+        <v>0</v>
       </c>
       <c r="Q24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:17">
+      <c r="R24">
+        <v>0.6192877569360142</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.2273330766485628</v>
+        <v>0.200430499482664</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.02128441662948077</v>
+        <v>0.0226214915333145</v>
       </c>
       <c r="E25">
-        <v>1.632441153357078</v>
+        <v>1.627053728690768</v>
       </c>
       <c r="F25">
-        <v>1.143272232541449</v>
+        <v>1.121834013014961</v>
       </c>
       <c r="G25">
-        <v>1.082828759739684</v>
+        <v>1.05435597563239</v>
       </c>
       <c r="H25">
-        <v>0.01910445254102711</v>
+        <v>0.01843424128418603</v>
       </c>
       <c r="I25">
-        <v>0.00223966657670438</v>
+        <v>0.001710437113708885</v>
       </c>
       <c r="J25">
-        <v>0.6329633366200937</v>
+        <v>0.6596988145728488</v>
       </c>
       <c r="K25">
-        <v>0.2563849261956577</v>
+        <v>0.2266872042675629</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>0.1159701470592864</v>
       </c>
       <c r="M25">
-        <v>3.694588381103131</v>
+        <v>0.05965848375480665</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>3.705476524050766</v>
       </c>
       <c r="P25">
-        <v>0.6913113585194344</v>
+        <v>0</v>
       </c>
       <c r="Q25">
+        <v>0</v>
+      </c>
+      <c r="R25">
+        <v>0.6731606666366226</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
